--- a/SIRS MODELS/galicia/24_03_2020.xlsx
+++ b/SIRS MODELS/galicia/24_03_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlour\Desktop\COVID19\SIRS MODELS\galicia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762BCE1A-61D8-4FD2-9B8F-B8EC9A2C4AB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21133B64-491F-4B66-BF50-8EB30A6E1687}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1254,60 +1254,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1447,6 +1393,60 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4529,10 +4529,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'SPANISH SIRS MODEL'!$B$17:$B$27</c:f>
+              <c:f>'SPANISH SIRS MODEL'!$B$17:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>13</c:v>
                 </c:pt>
@@ -4565,16 +4565,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'SPANISH SIRS MODEL'!$S$17:$S$27</c:f>
+              <c:f>'SPANISH SIRS MODEL'!$S$17:$S$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>136</c:v>
                 </c:pt>
@@ -4607,6 +4610,9 @@
                 </c:pt>
                 <c:pt idx="10" formatCode="0">
                   <c:v>1396</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1622</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4650,10 +4656,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'SPANISH SIRS MODEL'!$B$17:$B$27</c:f>
+              <c:f>'SPANISH SIRS MODEL'!$B$17:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>13</c:v>
                 </c:pt>
@@ -4686,16 +4692,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'SPANISH SIRS MODEL'!$T$17:$T$27</c:f>
+              <c:f>'SPANISH SIRS MODEL'!$T$17:$T$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>131</c:v>
                 </c:pt>
@@ -4728,6 +4737,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1374</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1598</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4754,7 +4766,7 @@
         <c:axId val="2005682768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="23"/>
+          <c:max val="24"/>
           <c:min val="13"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -6588,8 +6600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Z426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView tabSelected="1" topLeftCell="T7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AP33" sqref="AP33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6604,37 +6616,37 @@
   <sheetData>
     <row r="1" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="159" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="115" t="s">
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="162" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="117"/>
-      <c r="P2" s="115" t="s">
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
+      <c r="M2" s="163"/>
+      <c r="N2" s="164"/>
+      <c r="P2" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="116"/>
-      <c r="R2" s="116"/>
-      <c r="S2" s="116"/>
-      <c r="T2" s="116"/>
-      <c r="U2" s="117"/>
-      <c r="W2" s="118" t="s">
+      <c r="Q2" s="163"/>
+      <c r="R2" s="163"/>
+      <c r="S2" s="163"/>
+      <c r="T2" s="163"/>
+      <c r="U2" s="164"/>
+      <c r="W2" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="119"/>
-      <c r="Y2" s="119"/>
-      <c r="Z2" s="120"/>
+      <c r="X2" s="166"/>
+      <c r="Y2" s="166"/>
+      <c r="Z2" s="167"/>
     </row>
     <row r="3" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="88" t="s">
@@ -6676,13 +6688,13 @@
       <c r="N3" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="121" t="s">
+      <c r="P3" s="168" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="122"/>
-      <c r="S3" s="122"/>
-      <c r="T3" s="123"/>
+      <c r="Q3" s="169"/>
+      <c r="R3" s="169"/>
+      <c r="S3" s="169"/>
+      <c r="T3" s="170"/>
       <c r="U3" s="68">
         <f>2699499</f>
         <v>2699499</v>
@@ -6745,13 +6757,13 @@
       <c r="N4" s="93">
         <v>0</v>
       </c>
-      <c r="P4" s="124" t="s">
+      <c r="P4" s="171" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="125"/>
-      <c r="R4" s="125"/>
-      <c r="S4" s="125"/>
-      <c r="T4" s="126"/>
+      <c r="Q4" s="172"/>
+      <c r="R4" s="172"/>
+      <c r="S4" s="172"/>
+      <c r="T4" s="173"/>
       <c r="U4" s="69">
         <f>1084.3*1000</f>
         <v>1084300</v>
@@ -6820,13 +6832,13 @@
         <f t="shared" ref="N5:N24" si="6">K5-K4</f>
         <v>0</v>
       </c>
-      <c r="P5" s="121" t="s">
+      <c r="P5" s="168" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" s="122"/>
-      <c r="R5" s="122"/>
-      <c r="S5" s="122"/>
-      <c r="T5" s="123"/>
+      <c r="Q5" s="169"/>
+      <c r="R5" s="169"/>
+      <c r="S5" s="169"/>
+      <c r="T5" s="170"/>
       <c r="U5" s="103">
         <f>U3/U4</f>
         <v>2.4896237203725908</v>
@@ -6879,13 +6891,13 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P6" s="121" t="s">
+      <c r="P6" s="168" t="s">
         <v>34</v>
       </c>
-      <c r="Q6" s="122"/>
-      <c r="R6" s="122"/>
-      <c r="S6" s="122"/>
-      <c r="T6" s="123"/>
+      <c r="Q6" s="169"/>
+      <c r="R6" s="169"/>
+      <c r="S6" s="169"/>
+      <c r="T6" s="170"/>
       <c r="U6" s="103">
         <v>7</v>
       </c>
@@ -6937,13 +6949,13 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P7" s="121" t="s">
+      <c r="P7" s="168" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="122"/>
-      <c r="R7" s="122"/>
-      <c r="S7" s="122"/>
-      <c r="T7" s="123"/>
+      <c r="Q7" s="169"/>
+      <c r="R7" s="169"/>
+      <c r="S7" s="169"/>
+      <c r="T7" s="170"/>
       <c r="U7" s="104">
         <f>2.68</f>
         <v>2.68</v>
@@ -6997,13 +7009,13 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P8" s="121" t="s">
+      <c r="P8" s="168" t="s">
         <v>36</v>
       </c>
-      <c r="Q8" s="122"/>
-      <c r="R8" s="122"/>
-      <c r="S8" s="122"/>
-      <c r="T8" s="123"/>
+      <c r="Q8" s="169"/>
+      <c r="R8" s="169"/>
+      <c r="S8" s="169"/>
+      <c r="T8" s="170"/>
       <c r="U8" s="104">
         <f>U5</f>
         <v>2.4896237203725908</v>
@@ -7057,13 +7069,13 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P9" s="127" t="s">
+      <c r="P9" s="174" t="s">
         <v>29</v>
       </c>
-      <c r="Q9" s="128"/>
-      <c r="R9" s="128"/>
-      <c r="S9" s="128"/>
-      <c r="T9" s="129"/>
+      <c r="Q9" s="175"/>
+      <c r="R9" s="175"/>
+      <c r="S9" s="175"/>
+      <c r="T9" s="176"/>
       <c r="U9" s="105">
         <f>(U8^U8)/(U7^U6)</f>
         <v>9.7561918191139494E-3</v>
@@ -7166,14 +7178,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P11" s="115" t="s">
+      <c r="P11" s="162" t="s">
         <v>25</v>
       </c>
-      <c r="Q11" s="116"/>
-      <c r="R11" s="116"/>
-      <c r="S11" s="116"/>
-      <c r="T11" s="116"/>
-      <c r="U11" s="117"/>
+      <c r="Q11" s="163"/>
+      <c r="R11" s="163"/>
+      <c r="S11" s="163"/>
+      <c r="T11" s="163"/>
+      <c r="U11" s="164"/>
     </row>
     <row r="12" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="7">
@@ -7470,7 +7482,7 @@
       <c r="R16" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="S16" s="169" t="s">
+      <c r="S16" s="151" t="s">
         <v>24</v>
       </c>
       <c r="T16" s="72" t="s">
@@ -7493,7 +7505,7 @@
       <c r="B17" s="34">
         <v>13</v>
       </c>
-      <c r="C17" s="136">
+      <c r="C17" s="118">
         <v>43904</v>
       </c>
       <c r="D17" s="54">
@@ -7502,18 +7514,18 @@
       <c r="E17" s="54">
         <v>3</v>
       </c>
-      <c r="F17" s="142">
+      <c r="F17" s="124">
         <v>1</v>
       </c>
-      <c r="G17" s="152">
+      <c r="G17" s="134">
         <f t="shared" si="0"/>
         <v>5.0009279499640488E-5</v>
       </c>
-      <c r="H17" s="153">
+      <c r="H17" s="135">
         <f t="shared" si="7"/>
         <v>1.2053571428571428</v>
       </c>
-      <c r="I17" s="148">
+      <c r="I17" s="130">
         <f t="shared" si="2"/>
         <v>26203</v>
       </c>
@@ -7521,7 +7533,7 @@
         <f t="shared" si="3"/>
         <v>131</v>
       </c>
-      <c r="K17" s="142">
+      <c r="K17" s="124">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -7549,7 +7561,7 @@
         <f t="shared" ref="R17:R48" si="11">-J16*(1+W$4+Z$4)</f>
         <v>-206.24191489361704</v>
       </c>
-      <c r="S17" s="170">
+      <c r="S17" s="152">
         <f t="shared" ref="S17" si="12">INT((-Q17+SQRT((Q17^2)-(4*P17*R17)))/(2*P17))</f>
         <v>136</v>
       </c>
@@ -7562,7 +7574,7 @@
         <v>5</v>
       </c>
       <c r="V17" s="106">
-        <f t="shared" ref="V17:V28" si="13">U17/T17</f>
+        <f t="shared" ref="V17:V27" si="13">U17/T17</f>
         <v>3.8167938931297711E-2</v>
       </c>
       <c r="W17" s="35">
@@ -7578,7 +7590,7 @@
       <c r="B18" s="7">
         <v>14</v>
       </c>
-      <c r="C18" s="130">
+      <c r="C18" s="112">
         <v>43905</v>
       </c>
       <c r="D18" s="2">
@@ -7590,11 +7602,11 @@
       <c r="F18" s="8">
         <v>2</v>
       </c>
-      <c r="G18" s="154">
+      <c r="G18" s="136">
         <f t="shared" si="0"/>
         <v>7.0012991299496678E-5</v>
       </c>
-      <c r="H18" s="155">
+      <c r="H18" s="137">
         <f t="shared" si="7"/>
         <v>1.4</v>
       </c>
@@ -7643,7 +7655,7 @@
         <v>183</v>
       </c>
       <c r="U18" s="2">
-        <f t="shared" ref="U18:U28" si="16">S18-T18</f>
+        <f t="shared" ref="U18:U27" si="16">S18-T18</f>
         <v>-20</v>
       </c>
       <c r="V18" s="107">
@@ -7663,7 +7675,7 @@
       <c r="B19" s="9">
         <v>15</v>
       </c>
-      <c r="C19" s="131">
+      <c r="C19" s="113">
         <v>43906</v>
       </c>
       <c r="D19" s="3">
@@ -7675,11 +7687,11 @@
       <c r="F19" s="10">
         <v>3</v>
       </c>
-      <c r="G19" s="156">
+      <c r="G19" s="138">
         <f t="shared" si="0"/>
         <v>8.8534946669733899E-5</v>
       </c>
-      <c r="H19" s="157">
+      <c r="H19" s="139">
         <f t="shared" si="7"/>
         <v>1.2645502645502646</v>
       </c>
@@ -7748,7 +7760,7 @@
       <c r="B20" s="7">
         <v>16</v>
       </c>
-      <c r="C20" s="130">
+      <c r="C20" s="112">
         <v>43907</v>
       </c>
       <c r="D20" s="2">
@@ -7760,11 +7772,11 @@
       <c r="F20" s="8">
         <v>3</v>
       </c>
-      <c r="G20" s="154">
+      <c r="G20" s="136">
         <f t="shared" si="0"/>
         <v>1.0557514561035215E-4</v>
       </c>
-      <c r="H20" s="155">
+      <c r="H20" s="137">
         <f t="shared" si="7"/>
         <v>1.1924686192468619</v>
       </c>
@@ -7833,7 +7845,7 @@
       <c r="B21" s="9">
         <v>17</v>
       </c>
-      <c r="C21" s="131">
+      <c r="C21" s="113">
         <v>43908</v>
       </c>
       <c r="D21" s="3">
@@ -7845,11 +7857,11 @@
       <c r="F21" s="10">
         <v>4</v>
       </c>
-      <c r="G21" s="156">
+      <c r="G21" s="138">
         <f t="shared" si="0"/>
         <v>1.2335622276577987E-4</v>
       </c>
-      <c r="H21" s="157">
+      <c r="H21" s="139">
         <f t="shared" si="7"/>
         <v>1.168421052631579</v>
       </c>
@@ -7918,7 +7930,7 @@
       <c r="B22" s="7">
         <v>18</v>
       </c>
-      <c r="C22" s="130">
+      <c r="C22" s="112">
         <v>43909</v>
       </c>
       <c r="D22" s="2">
@@ -7930,11 +7942,11 @@
       <c r="F22" s="8">
         <v>5</v>
       </c>
-      <c r="G22" s="154">
+      <c r="G22" s="136">
         <f t="shared" si="0"/>
         <v>1.644749636877065E-4</v>
       </c>
-      <c r="H22" s="155">
+      <c r="H22" s="137">
         <f t="shared" si="7"/>
         <v>1.3333333333333333</v>
       </c>
@@ -8003,7 +8015,7 @@
       <c r="B23" s="9">
         <v>19</v>
       </c>
-      <c r="C23" s="131">
+      <c r="C23" s="113">
         <v>43910</v>
       </c>
       <c r="D23" s="3">
@@ -8015,11 +8027,11 @@
       <c r="F23" s="10">
         <v>6</v>
       </c>
-      <c r="G23" s="156">
+      <c r="G23" s="138">
         <f t="shared" si="0"/>
         <v>2.1003897389849005E-4</v>
       </c>
-      <c r="H23" s="157">
+      <c r="H23" s="139">
         <f t="shared" si="7"/>
         <v>1.277027027027027</v>
       </c>
@@ -8088,7 +8100,7 @@
       <c r="B24" s="7">
         <v>20</v>
       </c>
-      <c r="C24" s="130">
+      <c r="C24" s="112">
         <v>43911</v>
       </c>
       <c r="D24" s="2">
@@ -8100,11 +8112,11 @@
       <c r="F24" s="8">
         <v>12</v>
       </c>
-      <c r="G24" s="154">
+      <c r="G24" s="136">
         <f t="shared" si="0"/>
         <v>2.6708659643882068E-4</v>
       </c>
-      <c r="H24" s="155">
+      <c r="H24" s="137">
         <f t="shared" si="7"/>
         <v>1.271604938271605</v>
       </c>
@@ -8173,7 +8185,7 @@
       <c r="B25" s="9">
         <v>21</v>
       </c>
-      <c r="C25" s="131">
+      <c r="C25" s="113">
         <v>43912</v>
       </c>
       <c r="D25" s="3">
@@ -8182,18 +8194,18 @@
       <c r="E25" s="3">
         <v>16</v>
       </c>
-      <c r="F25" s="146">
+      <c r="F25" s="128">
         <v>14</v>
       </c>
-      <c r="G25" s="156">
+      <c r="G25" s="138">
         <f t="shared" si="0"/>
         <v>3.2783861005319877E-4</v>
       </c>
-      <c r="H25" s="158">
+      <c r="H25" s="140">
         <f t="shared" si="7"/>
         <v>1.2274618585298196</v>
       </c>
-      <c r="I25" s="149">
+      <c r="I25" s="131">
         <f t="shared" si="2"/>
         <v>25453</v>
       </c>
@@ -8258,7 +8270,7 @@
       <c r="B26" s="7">
         <v>22</v>
       </c>
-      <c r="C26" s="130">
+      <c r="C26" s="112">
         <v>43913</v>
       </c>
       <c r="D26" s="27">
@@ -8267,18 +8279,18 @@
       <c r="E26" s="27">
         <v>19</v>
       </c>
-      <c r="F26" s="147">
+      <c r="F26" s="129">
         <v>19</v>
       </c>
-      <c r="G26" s="154">
+      <c r="G26" s="136">
         <f t="shared" si="0"/>
         <v>4.3341375566355089E-4</v>
       </c>
-      <c r="H26" s="155">
+      <c r="H26" s="137">
         <f t="shared" si="7"/>
         <v>1.3220338983050848</v>
       </c>
-      <c r="I26" s="150">
+      <c r="I26" s="132">
         <f t="shared" si="2"/>
         <v>25166</v>
       </c>
@@ -8286,7 +8298,7 @@
         <f t="shared" si="3"/>
         <v>1132</v>
       </c>
-      <c r="K26" s="143">
+      <c r="K26" s="125">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
@@ -8340,85 +8352,85 @@
       </c>
     </row>
     <row r="27" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="137">
+      <c r="B27" s="119">
         <v>23</v>
       </c>
-      <c r="C27" s="138">
+      <c r="C27" s="120">
         <v>43914</v>
       </c>
-      <c r="D27" s="139">
+      <c r="D27" s="121">
         <v>1374</v>
       </c>
-      <c r="E27" s="139">
+      <c r="E27" s="121">
         <v>25</v>
       </c>
-      <c r="F27" s="144">
+      <c r="F27" s="126">
         <v>30</v>
       </c>
-      <c r="G27" s="159">
+      <c r="G27" s="141">
         <f t="shared" si="0"/>
         <v>5.089833335741187E-4</v>
       </c>
-      <c r="H27" s="160">
+      <c r="H27" s="142">
         <f t="shared" si="7"/>
         <v>1.1743589743589744</v>
       </c>
-      <c r="I27" s="151">
+      <c r="I27" s="133">
         <f t="shared" ref="I27" si="24">INT(U$3*U$9-D27-F27+E27)</f>
         <v>24957</v>
       </c>
-      <c r="J27" s="140">
+      <c r="J27" s="122">
         <f t="shared" ref="J27" si="25">D27-E27-F27</f>
         <v>1319</v>
       </c>
-      <c r="K27" s="144">
+      <c r="K27" s="126">
         <f t="shared" ref="K27" si="26">E27</f>
         <v>25</v>
       </c>
-      <c r="L27" s="145">
+      <c r="L27" s="127">
         <f t="shared" ref="L27" si="27">I27-I26</f>
         <v>-209</v>
       </c>
-      <c r="M27" s="140">
+      <c r="M27" s="122">
         <f t="shared" ref="M27" si="28">J27-J26</f>
         <v>187</v>
       </c>
-      <c r="N27" s="141">
+      <c r="N27" s="123">
         <f t="shared" ref="N27" si="29">K27-K26</f>
         <v>6</v>
       </c>
-      <c r="P27" s="164">
+      <c r="P27" s="146">
         <f t="shared" si="9"/>
         <v>1.634880944824681E-5</v>
       </c>
-      <c r="Q27" s="165">
+      <c r="Q27" s="147">
         <f t="shared" si="10"/>
         <v>1.5109638033937636</v>
       </c>
-      <c r="R27" s="165">
+      <c r="R27" s="147">
         <f t="shared" si="11"/>
         <v>-2141.8885106382982</v>
       </c>
-      <c r="S27" s="144">
+      <c r="S27" s="126">
         <f>INT(((-Q27+SQRT((Q27^2)-(4*P27*R27)))/(2*P27)))</f>
         <v>1396</v>
       </c>
-      <c r="T27" s="137">
+      <c r="T27" s="119">
         <v>1374</v>
       </c>
-      <c r="U27" s="166">
+      <c r="U27" s="148">
         <f t="shared" si="16"/>
         <v>22</v>
       </c>
-      <c r="V27" s="167">
+      <c r="V27" s="149">
         <f t="shared" si="13"/>
         <v>1.6011644832605532E-2</v>
       </c>
-      <c r="W27" s="166">
+      <c r="W27" s="148">
         <f t="shared" si="18"/>
         <v>-79</v>
       </c>
-      <c r="X27" s="168">
+      <c r="X27" s="150">
         <f>V27+X26</f>
         <v>-0.12666930268075854</v>
       </c>
@@ -8430,16 +8442,16 @@
       <c r="C28" s="83">
         <v>43915</v>
       </c>
-      <c r="D28" s="132">
-        <f t="shared" ref="D27:D58" si="30">D27+IF(M28&gt;0,M28,0)</f>
+      <c r="D28" s="114">
+        <f t="shared" ref="D28:D58" si="30">D27+IF(M28&gt;0,M28,0)</f>
         <v>1677</v>
       </c>
-      <c r="E28" s="133">
-        <f t="shared" ref="E27:E58" si="31">E27+IF(N28&gt;0,N28,0)</f>
+      <c r="E28" s="115">
+        <f t="shared" ref="E28:E58" si="31">E27+IF(N28&gt;0,N28,0)</f>
         <v>27</v>
       </c>
-      <c r="F28" s="134">
-        <f t="shared" ref="F27:F58" si="32">D28*W$4</f>
+      <c r="F28" s="116">
+        <f t="shared" ref="F28:F58" si="32">D28*W$4</f>
         <v>67.08</v>
       </c>
       <c r="G28" s="97">
@@ -8450,62 +8462,62 @@
         <f t="shared" si="7"/>
         <v>1.2205240174672489</v>
       </c>
-      <c r="I28" s="132">
-        <f t="shared" ref="I27:I58" si="33">INT((Z$4*K28+I27)/(1+Y$4*J28))</f>
+      <c r="I28" s="114">
+        <f t="shared" ref="I28:I58" si="33">INT((Z$4*K28+I27)/(1+Y$4*J28))</f>
         <v>24639</v>
       </c>
-      <c r="J28" s="135">
-        <f t="shared" ref="J27:J58" si="34">S28</f>
+      <c r="J28" s="117">
+        <f t="shared" ref="J28:J58" si="34">S28</f>
         <v>1622</v>
       </c>
-      <c r="K28" s="134">
-        <f t="shared" ref="K27:K58" si="35">INT((X$4*J28+K27)/(1+W$4+Z$4))</f>
+      <c r="K28" s="116">
+        <f t="shared" ref="K28:K58" si="35">INT((X$4*J28+K27)/(1+W$4+Z$4))</f>
         <v>27</v>
       </c>
-      <c r="L28" s="132">
-        <f t="shared" ref="L27:L58" si="36">I28-I27</f>
+      <c r="L28" s="114">
+        <f t="shared" ref="L28:L58" si="36">I28-I27</f>
         <v>-318</v>
       </c>
-      <c r="M28" s="135">
+      <c r="M28" s="117">
         <f t="shared" si="20"/>
         <v>303</v>
       </c>
-      <c r="N28" s="134">
-        <f t="shared" ref="N27:N58" si="37">K28-K27</f>
+      <c r="N28" s="116">
+        <f t="shared" ref="N28:N58" si="37">K28-K27</f>
         <v>2</v>
       </c>
-      <c r="P28" s="161">
+      <c r="P28" s="143">
         <f t="shared" si="9"/>
         <v>1.634880944824681E-5</v>
       </c>
-      <c r="Q28" s="162">
+      <c r="Q28" s="144">
         <f t="shared" si="10"/>
         <v>1.511275041212141</v>
       </c>
-      <c r="R28" s="162">
+      <c r="R28" s="144">
         <f t="shared" si="11"/>
         <v>-2495.7163829787237</v>
       </c>
-      <c r="S28" s="163">
+      <c r="S28" s="145">
         <f t="shared" ref="S28:S91" si="38">INT(((-Q28+SQRT((Q28^2)-(4*P28*R28)))/(2*P28)))</f>
         <v>1622</v>
       </c>
-      <c r="T28" s="173">
+      <c r="T28" s="155">
         <v>1598</v>
       </c>
-      <c r="U28" s="174">
+      <c r="U28" s="156">
         <f t="shared" ref="U28" si="39">S28-T28</f>
         <v>24</v>
       </c>
-      <c r="V28" s="175">
+      <c r="V28" s="157">
         <f t="shared" ref="V28" si="40">U28/T28</f>
         <v>1.5018773466833541E-2</v>
       </c>
-      <c r="W28" s="174">
+      <c r="W28" s="156">
         <f t="shared" ref="W28" si="41">W27+U28</f>
         <v>-55</v>
       </c>
-      <c r="X28" s="176">
+      <c r="X28" s="158">
         <f>V28+X27</f>
         <v>-0.111650529213925</v>
       </c>
@@ -8579,9 +8591,9 @@
       </c>
       <c r="T29" s="42"/>
       <c r="U29" s="43"/>
-      <c r="V29" s="171"/>
+      <c r="V29" s="153"/>
       <c r="W29" s="43"/>
-      <c r="X29" s="172"/>
+      <c r="X29" s="154"/>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B30" s="7">
